--- a/biology/Médecine/Topotécan/Topotécan.xlsx
+++ b/biology/Médecine/Topotécan/Topotécan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Topot%C3%A9can</t>
+          <t>Topotécan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le topotécan est un anticancéreux, antinéoplasique et antimitotique. Il fait partie de la classe des camptothécines.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Topot%C3%A9can</t>
+          <t>Topotécan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le topotécan agit en se liant à l'ADN topoisomérase I et l'inhibe.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Topot%C3%A9can</t>
+          <t>Topotécan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Indication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>cancer de l'ovaire[2]
-cancer du col utérin[3],[4]
-small cell lung cancer[5],[6]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>cancer de l'ovaire
+cancer du col utérin,
+small cell lung cancer,</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Topot%C3%A9can</t>
+          <t>Topotécan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Masse molaire calculée d’après « Atomic weights of the elements 2007 », sur www.chem.qmul.ac.uk.
